--- a/mktcontent/产品/Images_Translation/产品-Images_译文_190312.xlsx
+++ b/mktcontent/产品/Images_Translation/产品-Images_译文_190312.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>Load Balancer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,14 +572,499 @@
       </rPr>
       <t>B</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息;视频点播;scenariosImage;4d63e06c-598e-435e-b7e5-c7cbfbc10eaf20190306153313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内容生产者</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content Producer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>版权资源</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copyright Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>综艺影视</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variety Show, Film and Television</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直转点播</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct Broadcasting and VOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上传SDK控制台</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload to SDK Console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上传</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画质修复</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Definition Repair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云非编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud Non-linear Editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频安全</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>防盗链</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anti-Leech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>播放鉴权</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play Authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>媒资管理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Media Assets Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台标添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add TV Station Logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distribution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应用终端</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP Terminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>播放SDK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Playing SDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息;视频点播;scenariosImage;e1e2fce3-20a4-476a-adca-07ad05660c7b20190306153306</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教学录像</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teaching Video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直播录像</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Live Video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频转码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Transcoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频水印</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Watermark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频加密</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Encryption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息;视频点播;scenariosImage;eaa22c02-96d8-479c-9d97-6a6c46fed32320190306153259</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>短视频</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short Videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>云剪辑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud Editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内容审核</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content Audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频分类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象存储</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object Storage Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>媒体转码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Media Transcoding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,12 +1092,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -627,15 +1118,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -914,145 +1420,428 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:C32"/>
+  <dimension ref="A2:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A31" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="35.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="35.21875" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="57">
+    <row r="2" spans="1:3" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="57">
+    <row r="11" spans="1:3" ht="69" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="57">
+    <row r="19" spans="1:3" ht="69" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="57">
+    <row r="30" spans="1:3" ht="69" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
